--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_29.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>834674.0607995626</v>
+        <v>1695285.353482168</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>202.8504658884255</v>
       </c>
       <c r="Y2" t="n">
-        <v>370.9883291381868</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>7.272703900894775</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.220846587376222</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>76.30144276124484</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>25.69280640192093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>129.0246247964035</v>
+        <v>110.2526535426571</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>368.8040713583482</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>2.016548818652791</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>195.5259221771827</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>14.48345164522501</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.8899169997287</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>158.6625955097718</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>89.753702869758</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>26.15603929387865</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>24.53938653565462</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>136.448301766467</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.47358655760121</v>
+        <v>170.2208973138328</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,16 +2293,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>20.82402696096981</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>59.27804089498998</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>10.1695067231849</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>233.6682818773065</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>113.9016148438895</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>162.2565632128951</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>3.726532309043224</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>82.93664497460703</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>42.20840157554994</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3955,16 +3955,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>20.59453480789276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4034,10 +4034,10 @@
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17.70482465048268</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="Y2" t="n">
-        <v>1210.087414675782</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.927467442204</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>219.0375199442937</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>219.0375199442937</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>61.28914737682382</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>718.8149977545393</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>570.6683391887233</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>570.6683391887233</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1515.02307474038</v>
+        <v>1704.018810322078</v>
       </c>
       <c r="C5" t="n">
-        <v>1146.060557799969</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733119</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.975404439291</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y5" t="n">
-        <v>1515.02307474038</v>
+        <v>2090.6186503862</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551155</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1272.344242153658</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C8" t="n">
-        <v>1272.344242153658</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D8" t="n">
-        <v>914.0785435469079</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>914.0785435469079</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>907.1330427977044</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2640.083483550076</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2640.083483550076</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2640.083483550076</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2309.020596206506</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1956.251940936392</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1582.786182675312</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.344242153658</v>
+        <v>1192.6468506995</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942405</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942405</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628423</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628423</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="V10" t="n">
-        <v>68.57273095695538</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="W10" t="n">
-        <v>68.57273095695538</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>382.4813941485145</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>382.4813941485145</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5039,16 +5039,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>646.7193686662754</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>967.0546881959772</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.466266460128</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>649.9303982917385</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C13" t="n">
-        <v>480.9942153638316</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>330.8775759514958</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>182.9644823691027</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1114.86560735774</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>1114.86560735774</v>
       </c>
       <c r="W13" t="n">
-        <v>1098.712528333286</v>
+        <v>825.448437320779</v>
       </c>
       <c r="X13" t="n">
-        <v>870.7229774352686</v>
+        <v>597.4588864227617</v>
       </c>
       <c r="Y13" t="n">
-        <v>649.9303982917385</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,10 +5261,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L15" t="n">
-        <v>343.9822193667499</v>
+        <v>510.3034215191122</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.477879194978</v>
+        <v>1278.671567911574</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.889457459129</v>
+        <v>2083.083146175724</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.642871543091</v>
+        <v>2362.623211394422</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1297.180861190679</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1073.395445980185</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1073.395445980185</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>818.7109577742983</v>
+        <v>648.5868613273557</v>
       </c>
       <c r="W16" t="n">
-        <v>818.7109577742983</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X16" t="n">
-        <v>818.7109577742983</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.9183786307682</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,7 +5498,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>2334.498159098441</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K18" t="n">
-        <v>2609.912828753902</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L18" t="n">
-        <v>2856.677956660366</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M18" t="n">
-        <v>3625.046103052828</v>
+        <v>3540.192194764783</v>
       </c>
       <c r="N18" t="n">
-        <v>4429.457681316979</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O18" t="n">
-        <v>4678.211095400941</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P18" t="n">
-        <v>4860.854573014292</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q18" t="n">
         <v>4860.854573014292</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4096.801546389153</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C19" t="n">
-        <v>3927.865363461246</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>3777.748724048911</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>4637.069157803799</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>4637.069157803799</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>4499.242590362923</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W19" t="n">
-        <v>4499.242590362923</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X19" t="n">
-        <v>4499.242590362923</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="Y19" t="n">
-        <v>4278.450011219393</v>
+        <v>420.0340835819385</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,37 +5744,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>789.1218708082361</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1109.457190337938</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.977845975556</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>542.1367719529251</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>1298.996260473455</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W22" t="n">
-        <v>1009.579090436494</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="X22" t="n">
-        <v>781.5895395384766</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="Y22" t="n">
-        <v>560.7969603949465</v>
+        <v>677.9999391053083</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>469.3397794245873</v>
+        <v>999.2632410381163</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.707925817049</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N24" t="n">
-        <v>1854.519469556429</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>4015.911034827088</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3867.997941244695</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4036.945405494735</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>4036.945405494735</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>4036.945405494735</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,19 +6221,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>2483.5678433005</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L27" t="n">
-        <v>2546.343292182033</v>
+        <v>493.0519035688097</v>
       </c>
       <c r="M27" t="n">
-        <v>2866.678611711734</v>
+        <v>1261.420049961271</v>
       </c>
       <c r="N27" t="n">
-        <v>3671.090189975885</v>
+        <v>2065.831628225422</v>
       </c>
       <c r="O27" t="n">
-        <v>4340.553951278544</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>4860.854573014291</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>713.5778697504956</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1439.039461573064</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1149.910822786622</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>895.2263345807353</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>895.2263345807353</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>895.2263345807353</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>895.2263345807353</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>711.1141612171745</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1479.482307609636</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.893885873787</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2430.300015665487</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>423.3154508994212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>254.3792679715143</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>898.7925182488382</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>644.1080300429513</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>644.1080300429513</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>644.1080300429513</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>423.3154508994212</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,40 +6683,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2808.725629610979</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>2808.725629610979</v>
+        <v>1252.458367650764</v>
       </c>
       <c r="M33" t="n">
-        <v>3577.093776003441</v>
+        <v>1559.778500930725</v>
       </c>
       <c r="N33" t="n">
-        <v>3921.614431641059</v>
+        <v>2364.190079194876</v>
       </c>
       <c r="O33" t="n">
-        <v>4591.078192943718</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3570.689985294728</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C34" t="n">
-        <v>3570.689985294728</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>3570.689985294728</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>3570.689985294728</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>3570.689985294728</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4201.120580166516</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>4201.120580166516</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W34" t="n">
-        <v>4201.120580166516</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X34" t="n">
-        <v>3973.131029268498</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y34" t="n">
-        <v>3752.338450124968</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,7 +6920,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6977,10 +6977,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2334.498159098441</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>2689.501860359532</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>2936.266988265996</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>3256.602307795697</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>4061.013886059848</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>4340.553951278545</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>4860.854573014292</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4094.598000559212</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C37" t="n">
-        <v>3925.661817631305</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>3925.661817631305</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>3777.748724048912</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048912</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368732</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>4660.934562929845</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W37" t="n">
-        <v>4660.934562929845</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X37" t="n">
-        <v>4497.039044532981</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y37" t="n">
-        <v>4276.246465389451</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="38">
@@ -7172,7 +7172,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>2334.498159098441</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2334.498159098441</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>2948.395228855329</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>3536.142373014395</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N39" t="n">
-        <v>4340.553951278545</v>
+        <v>2232.152830377785</v>
       </c>
       <c r="O39" t="n">
-        <v>4340.553951278545</v>
+        <v>2511.692895596482</v>
       </c>
       <c r="P39" t="n">
-        <v>4860.854573014292</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3971.313650668268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3802.377467740361</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3802.377467740361</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3654.464374157968</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4549.85945949167</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4260.730820705228</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4260.730820705228</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>3971.313650668268</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3971.313650668268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3971.313650668268</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7406,55 +7406,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2334.498159098441</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2334.498159098441</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>2581.263287004905</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>3349.631433397366</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>3694.152089034984</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O42" t="n">
-        <v>4253.421048821322</v>
+        <v>2386.862770609477</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>355.6416303362487</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C43" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D43" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F43" t="n">
         <v>208.7516828383384</v>
@@ -7564,7 +7564,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7573,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W43" t="n">
-        <v>786.0822064765186</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X43" t="n">
-        <v>558.0926555785013</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="Y43" t="n">
-        <v>537.2900951664884</v>
+        <v>420.3226148324574</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7643,43 +7643,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
@@ -7688,10 +7688,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>232.3332043549318</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171745</v>
+        <v>479.0983322613959</v>
       </c>
       <c r="M45" t="n">
-        <v>1031.449480746876</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1673.703351905604</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2343.167113208264</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7810,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>809.2953582963253</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>581.3058073983079</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>581.3058073983079</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>56.4927406055628</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>323.0122135188372</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,16 +9492,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>289.8473899750984</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>201.9639241046551</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,10 +9966,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>290.4812240320207</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>160.4409940991077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>283.2596069485899</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,10 +11388,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>60.53113102320255</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>127.5747568888055</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>108.1671071138452</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.9816040299494</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>155.2925936462827</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>115.689341557361</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>161.3583936243361</v>
+        <v>9.611082868104461</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>127.7914460572426</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>162.2695201633993</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,16 +24838,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>138.4459662950275</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25123,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>52.56907052127087</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>111.8080405451477</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25363,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>63.45309217614206</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>214.8581210430516</v>
       </c>
     </row>
     <row r="38">
@@ -25549,16 +25549,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>62.48440304832421</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25567,7 +25567,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25594,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>137.6235786063874</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>197.990118544202</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,22 +26020,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>162.1271555314546</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516049</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516046</v>
       </c>
       <c r="E2" t="n">
         <v>566992.1366196781</v>
       </c>
       <c r="F2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196774</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="J2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>566992.1366196782</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>566992.136619678</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>566992.1366196778</v>
+      </c>
+      <c r="O2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="P2" t="n">
         <v>566992.1366196781</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.1366196782</v>
-      </c>
-      <c r="M2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="N2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="P2" t="n">
-        <v>566992.136619678</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,31 +26418,31 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="K4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905759184</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758694</v>
@@ -26457,7 +26457,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758314</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069684</v>
+        <v>-216630.8133069683</v>
       </c>
       <c r="C6" t="n">
-        <v>373337.0659075764</v>
+        <v>373337.0659075766</v>
       </c>
       <c r="D6" t="n">
-        <v>373337.0659075761</v>
+        <v>373337.0659075765</v>
       </c>
       <c r="E6" t="n">
-        <v>-50943.01949651029</v>
+        <v>-50943.0194965105</v>
       </c>
       <c r="F6" t="n">
+        <v>474217.0169803854</v>
+      </c>
+      <c r="G6" t="n">
+        <v>474217.0169803853</v>
+      </c>
+      <c r="H6" t="n">
+        <v>474217.0169803849</v>
+      </c>
+      <c r="I6" t="n">
+        <v>474217.0169803854</v>
+      </c>
+      <c r="J6" t="n">
+        <v>297793.7977877926</v>
+      </c>
+      <c r="K6" t="n">
+        <v>474217.0169803858</v>
+      </c>
+      <c r="L6" t="n">
         <v>474217.0169803855</v>
       </c>
-      <c r="G6" t="n">
+      <c r="M6" t="n">
+        <v>339416.0017465483</v>
+      </c>
+      <c r="N6" t="n">
+        <v>474217.0169803853</v>
+      </c>
+      <c r="O6" t="n">
         <v>474217.0169803855</v>
       </c>
-      <c r="H6" t="n">
-        <v>474217.0169803855</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
         <v>474217.0169803856</v>
-      </c>
-      <c r="J6" t="n">
-        <v>297793.7977877925</v>
-      </c>
-      <c r="K6" t="n">
-        <v>474217.0169803854</v>
-      </c>
-      <c r="L6" t="n">
-        <v>474217.0169803858</v>
-      </c>
-      <c r="M6" t="n">
-        <v>339416.0017465485</v>
-      </c>
-      <c r="N6" t="n">
-        <v>474217.0169803854</v>
-      </c>
-      <c r="O6" t="n">
-        <v>474217.0169803854</v>
-      </c>
-      <c r="P6" t="n">
-        <v>474217.0169803855</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27436,16 +27436,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>166.8806347900435</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.24960951786682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>127.6929178914435</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>19.90190336753808</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>288.9714490097627</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>360.5451322541327</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>157.4983735401875</v>
+        <v>176.2703447939339</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>44.98009866244684</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>172.3991639903188</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>16.6196167728362</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>211.2262037438121</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31133,7 +31133,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942293</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31148,7 +31148,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034983</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31379,25 +31379,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392718</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>162.4518126576419</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,22 +31838,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>322.7668397349903</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>171.3135836203299</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,22 +32075,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>378.9498386853801</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32257,7 +32257,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
         <v>76.0697047810465</v>
@@ -32312,10 +32312,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>151.5728379773983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
@@ -32324,16 +32324,16 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>408.5315900543038</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,22 +32549,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>368.9552512585109</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
@@ -32573,13 +32573,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,16 +32716,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,34 +32789,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>263.8310857221907</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>410.8654302134177</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>351.5825245709633</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,19 +33734,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>231.9657991952056</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>396.5537155454427</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33755,16 +33755,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>158.9720915784041</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>313.6520663660364</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>285.0631269188133</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>232.4121821352563</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>300.7406217384951</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>555.0528052585753</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>494.8846134483115</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>702.5208685133617</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>263.5861555370875</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>278.1966360156179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35972,16 +35972,16 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>572.2699184748615</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>226.3590068140665</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,16 +36358,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
         <v>713.1546070951472</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>496.1170512457757</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>623.0419633731112</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>63.40954432478087</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>268.2691857689732</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>147.8849795875763</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>311.0164326870469</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>583.8684900945483</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>358.5895972334253</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>593.6839839990561</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>24.99768416407388</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>564.9181411983215</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>151.0887195044831</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>94.57074316089728</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>648.7412839987153</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2583708.433213433</v>
+        <v>2659238.102878238</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1695285.353482168</v>
+        <v>935143.2253076505</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9384433.296235973</v>
+        <v>9384433.296235975</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>42.82230210090859</v>
       </c>
       <c r="X2" t="n">
-        <v>202.8504658884255</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>7.272703900894775</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>110.4533722148673</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>76.30144276124484</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>145.7768128907613</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>176.7166301627354</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>110.2526535426571</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.016548818652791</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>185.864430919943</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>195.5259221771827</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>59.73917789238745</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1378,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274094</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>94.16481274941263</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>158.6625955097718</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1658,19 +1660,19 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>185.8336559953617</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>26.15603929387865</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.53938653565462</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>93.87916681139943</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>170.2208973138328</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>87.44132015039833</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>168.1406355307175</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>109.1121207897299</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,16 +2769,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>51.46375476496024</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>22.25888195252609</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>113.9016148438895</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3268,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560551</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>28.3372457787094</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.726532309043224</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,10 +3720,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>179.0556349746078</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.20840157554994</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>59.77945773665003</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.29718497126802</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2168.926277893999</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.480975254749</v>
+        <v>1795.460519632919</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.8405610245972</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C4" t="n">
-        <v>513.8405610245972</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D4" t="n">
-        <v>513.8405610245972</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E4" t="n">
-        <v>365.927467442204</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F4" t="n">
-        <v>219.0375199442937</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>219.0375199442937</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>61.28914737682382</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>438.9963436509397</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245972</v>
+        <v>438.9963436509397</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245972</v>
+        <v>438.9963436509397</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.018810322078</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733119</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224069</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2494.871095598452</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2163.808208254881</v>
       </c>
       <c r="W5" t="n">
-        <v>2090.6186503862</v>
+        <v>2163.808208254881</v>
       </c>
       <c r="X5" t="n">
-        <v>2090.6186503862</v>
+        <v>2163.808208254881</v>
       </c>
       <c r="Y5" t="n">
-        <v>2090.6186503862</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>549.6273375774088</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>549.6273375774088</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806.0470106353782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>806.0470106353782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2640.083483550076</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2640.083483550076</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2640.083483550076</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2309.020596206506</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1956.251940936392</v>
+        <v>2509.407241604139</v>
       </c>
       <c r="X8" t="n">
-        <v>1582.786182675312</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y8" t="n">
-        <v>1192.6468506995</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.8329293182748</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>382.4813941485145</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>382.4813941485145</v>
+        <v>638.3694611283516</v>
       </c>
       <c r="U10" t="n">
-        <v>382.4813941485145</v>
+        <v>638.3694611283516</v>
       </c>
       <c r="V10" t="n">
-        <v>382.4813941485145</v>
+        <v>638.3694611283516</v>
       </c>
       <c r="W10" t="n">
-        <v>382.4813941485145</v>
+        <v>638.3694611283516</v>
       </c>
       <c r="X10" t="n">
-        <v>382.4813941485145</v>
+        <v>638.3694611283516</v>
       </c>
       <c r="Y10" t="n">
-        <v>382.4813941485145</v>
+        <v>417.5768819848216</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155891</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5066,25 +5068,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5123,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1778.261399527878</v>
+        <v>1794.873193964058</v>
       </c>
       <c r="N12" t="n">
-        <v>2122.782055165496</v>
+        <v>1794.873193964058</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>2074.413259182755</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925219</v>
+        <v>192.33306393444</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>192.33306393444</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>192.33306393444</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>192.33306393444</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1114.86560735774</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>1114.86560735774</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>825.448437320779</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X13" t="n">
-        <v>597.4588864227617</v>
+        <v>192.33306393444</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.4588864227617</v>
+        <v>192.33306393444</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5264,7 +5266,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,19 +5293,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>263.5382936126482</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>510.3034215191122</v>
+        <v>517.7409586960525</v>
       </c>
       <c r="M15" t="n">
-        <v>1278.671567911574</v>
+        <v>1286.109105088514</v>
       </c>
       <c r="N15" t="n">
-        <v>2083.083146175724</v>
+        <v>2079.710673976462</v>
       </c>
       <c r="O15" t="n">
-        <v>2362.623211394422</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>359.1696912903951</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="C16" t="n">
-        <v>359.1696912903951</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1311.205506926224</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1022.076868139783</v>
       </c>
       <c r="V16" t="n">
-        <v>648.5868613273557</v>
+        <v>1022.076868139783</v>
       </c>
       <c r="W16" t="n">
-        <v>359.1696912903951</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="X16" t="n">
-        <v>359.1696912903951</v>
+        <v>732.6596981028219</v>
       </c>
       <c r="Y16" t="n">
-        <v>359.1696912903951</v>
+        <v>732.6596981028219</v>
       </c>
     </row>
     <row r="17">
@@ -5510,34 +5512,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465858</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372322</v>
+        <v>642.5710836830574</v>
       </c>
       <c r="M18" t="n">
-        <v>3540.192194764783</v>
+        <v>1410.939230075519</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556162</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188992</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>420.0340835819385</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>420.0340835819385</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>420.0340835819385</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N21" t="n">
-        <v>2107.322705390779</v>
+        <v>2115.681725457454</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>506.0596387883054</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C22" t="n">
-        <v>506.0596387883054</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D22" t="n">
-        <v>506.0596387883054</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E22" t="n">
-        <v>506.0596387883054</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488384</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="V22" t="n">
-        <v>898.7925182488384</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="W22" t="n">
-        <v>898.7925182488384</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="X22" t="n">
-        <v>898.7925182488384</v>
+        <v>986.8862794544777</v>
       </c>
       <c r="Y22" t="n">
-        <v>677.9999391053083</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>999.2632410381163</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M24" t="n">
-        <v>1767.631387430578</v>
+        <v>1222.010242114294</v>
       </c>
       <c r="N24" t="n">
-        <v>2112.152043068196</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2360.905457152158</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2543.548934765509</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,61 +6214,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>246.2867756623457</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L27" t="n">
-        <v>493.0519035688097</v>
+        <v>877.435363369537</v>
       </c>
       <c r="M27" t="n">
-        <v>1261.420049961271</v>
+        <v>1645.803509761999</v>
       </c>
       <c r="N27" t="n">
-        <v>2065.831628225422</v>
+        <v>1645.803509761999</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>820.5263570570741</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6442,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>465.2890973945354</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>465.2890973945354</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>465.2890973945354</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>317.3760038121422</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>646.9375622247751</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>646.9375622247751</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6685,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6695,22 +6697,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,22 +6724,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>1252.458367650764</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M33" t="n">
-        <v>1559.778500930725</v>
+        <v>754.9984739765637</v>
       </c>
       <c r="N33" t="n">
-        <v>2364.190079194876</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O33" t="n">
-        <v>2612.943493278838</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.943493278838</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>434.3285960683721</v>
+        <v>379.1484955646972</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>379.1484955646972</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>379.1484955646972</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>231.2354019823041</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>231.2354019823041</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>231.2354019823041</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557893</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557893</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473445</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473445</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473445</v>
       </c>
       <c r="V34" t="n">
-        <v>1020.446367141521</v>
+        <v>1298.996260473445</v>
       </c>
       <c r="W34" t="n">
-        <v>731.0291971045608</v>
+        <v>1009.579090436484</v>
       </c>
       <c r="X34" t="n">
-        <v>615.9770608986119</v>
+        <v>781.5895395384671</v>
       </c>
       <c r="Y34" t="n">
-        <v>615.9770608986119</v>
+        <v>560.7969603949369</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6923,61 +6925,61 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250805</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095318</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>3158.474758001782</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>3341.227562311855</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>3671.090189975888</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>4340.553951278547</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705744</v>
+        <v>416.2699138005286</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705744</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>820.5263570570736</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W37" t="n">
-        <v>531.109187020113</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X37" t="n">
-        <v>531.109187020113</v>
+        <v>637.0624929440587</v>
       </c>
       <c r="Y37" t="n">
-        <v>527.3450129705744</v>
+        <v>416.2699138005286</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7184,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M39" t="n">
-        <v>1427.741252113634</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N39" t="n">
-        <v>2232.152830377785</v>
+        <v>1652.990870621109</v>
       </c>
       <c r="O39" t="n">
-        <v>2511.692895596482</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>3628.091576844588</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916682</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916682</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916682</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916682</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916682</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916682</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916682</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>4036.945405494735</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>3856.081127742606</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>3856.081127742606</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>3628.091576844588</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>3628.091576844588</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7393,37 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>188.143296878675</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>802.0403666355637</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N42" t="n">
-        <v>2107.322705390779</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O42" t="n">
-        <v>2386.862770609477</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
@@ -7576,7 +7578,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324574</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W43" t="n">
-        <v>420.3226148324574</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="X43" t="n">
-        <v>420.3226148324574</v>
+        <v>157.6003821033667</v>
       </c>
       <c r="Y43" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7631,34 +7633,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7667,22 +7669,22 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>232.3332043549318</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>479.0983322613959</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>2105.043711221602</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2353.797125305564</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7834,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,13 +8780,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>49.52358393480773</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>468.4231729534498</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>56.4927406055628</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>197.4201151832272</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>173.0395626157771</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,19 +9728,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>111.1934253088072</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>222.7040762286641</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10194,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10434,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>447.6499092655448</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>326.7328261544156</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>229.6860909121257</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,16 +11153,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>51.25623527351861</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>127.5747568888055</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>35.7139050630276</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>225.9816040299494</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.2925936462827</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.611082868104461</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>198.796032248179</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890328</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>57.56901985831968</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>58.13470030889798</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24655,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>93.957293257971</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>126.65494641501</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>111.8080405451477</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>197.3724096103277</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.8581210430516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>73.08200834922025</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>137.6235786063874</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154447</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>194.2874683808268</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623037</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623032</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623033</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516049</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516048</v>
-      </c>
-      <c r="C2" t="n">
-        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516049</v>
@@ -26323,37 +26325,37 @@
         <v>566992.1366196781</v>
       </c>
       <c r="F2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="G2" t="n">
         <v>566992.1366196779</v>
       </c>
-      <c r="G2" t="n">
-        <v>566992.1366196778</v>
-      </c>
       <c r="H2" t="n">
-        <v>566992.1366196774</v>
+        <v>566992.136619678</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196782</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="L2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196775</v>
       </c>
       <c r="N2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196774</v>
       </c>
       <c r="O2" t="n">
-        <v>566992.136619678</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="P2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196779</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.986472225410878e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757903</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.793690575847</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758063</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758696</v>
       </c>
       <c r="I4" t="n">
+        <v>787.7936905758011</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758693</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="L4" t="n">
+        <v>787.7936905757147</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905757468</v>
+      </c>
+      <c r="N4" t="n">
+        <v>787.7936905757693</v>
+      </c>
+      <c r="O4" t="n">
         <v>787.7936905758696</v>
       </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="O4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758314</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26500,7 +26502,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069683</v>
+        <v>-216630.813306968</v>
       </c>
       <c r="C6" t="n">
-        <v>373337.0659075766</v>
+        <v>373337.0659075764</v>
       </c>
       <c r="D6" t="n">
         <v>373337.0659075765</v>
       </c>
       <c r="E6" t="n">
-        <v>-50943.0194965105</v>
+        <v>-50943.01949651044</v>
       </c>
       <c r="F6" t="n">
-        <v>474217.0169803854</v>
+        <v>474217.0169803855</v>
       </c>
       <c r="G6" t="n">
-        <v>474217.0169803853</v>
+        <v>474217.0169803855</v>
       </c>
       <c r="H6" t="n">
-        <v>474217.0169803849</v>
+        <v>474217.0169803855</v>
       </c>
       <c r="I6" t="n">
-        <v>474217.0169803854</v>
+        <v>474217.0169803857</v>
       </c>
       <c r="J6" t="n">
-        <v>297793.7977877926</v>
+        <v>297793.7977877923</v>
       </c>
       <c r="K6" t="n">
-        <v>474217.0169803858</v>
+        <v>474217.0169803852</v>
       </c>
       <c r="L6" t="n">
+        <v>474217.0169803856</v>
+      </c>
+      <c r="M6" t="n">
+        <v>339416.0017465479</v>
+      </c>
+      <c r="N6" t="n">
+        <v>474217.0169803851</v>
+      </c>
+      <c r="O6" t="n">
+        <v>474217.0169803856</v>
+      </c>
+      <c r="P6" t="n">
         <v>474217.0169803855</v>
-      </c>
-      <c r="M6" t="n">
-        <v>339416.0017465483</v>
-      </c>
-      <c r="N6" t="n">
-        <v>474217.0169803853</v>
-      </c>
-      <c r="O6" t="n">
-        <v>474217.0169803855</v>
-      </c>
-      <c r="P6" t="n">
-        <v>474217.0169803856</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.233090281763598e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,37 +26749,37 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26802,13 +26804,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.233090281763598e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.233090281763598e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>306.4186666165044</v>
       </c>
       <c r="X2" t="n">
-        <v>166.8806347900435</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6929178914435</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>176.0696261217237</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>288.9714490097627</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>105.447354617528</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>48.31847529534886</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>176.2703447939339</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>172.3991639903188</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27910,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>163.37653779747</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>16.6196167728362</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>165.2959275656968</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.190252600806797e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29022,7 +29024,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>4.336205468765305e-12</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -29986,25 +29988,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30037,22 +30039,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-1.542710786703412e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30402,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-7.280249449099882e-12</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
         <v>205.8702969983122</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,13 +31612,13 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31847,19 +31849,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>171.3135836203299</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,34 +32074,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>408.5315900543038</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>368.9552512585109</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>263.8310857221907</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,34 +33022,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>410.8654302134177</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>97.00429779117457</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,34 +33496,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>351.5825245709633</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677465</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>396.5537155454427</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927169</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,34 +33970,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>288.5988541477454</v>
       </c>
       <c r="P39" t="n">
-        <v>158.9720915784041</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,34 +34207,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>285.0631269188133</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,25 +34447,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>232.4121821352563</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>166.5427172625987</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34472,10 +34474,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>494.8846134483115</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>256.6169988663324</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>801.6177463514628</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>263.5861555370875</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.532252314524</v>
+        <v>66.0784030998939</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>226.3590068140665</v>
+        <v>30.44331817133266</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>496.1170512457757</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>444.3879987068202</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>268.2691857689732</v>
+        <v>505.0677784697723</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>445.0049600513948</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>583.8684900945483</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>305.5158753435265</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997186478</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>184.5987922323973</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>146.002609703301</v>
       </c>
       <c r="P39" t="n">
-        <v>24.99768416407388</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016555827</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>91.84465193776676</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>151.0887195044831</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>94.57074316089728</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>514.5433795228189</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2659238.102878238</v>
+        <v>2652221.087986525</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>935143.2253076505</v>
+        <v>510290.2443649753</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9384433.296235975</v>
+        <v>9384433.296235973</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>146.6511378567301</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>42.82230210090859</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>110.4533722148673</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>213.6743229269904</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>252.5570757336668</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>145.7768128907613</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>124.1699884042477</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>176.7166301627354</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>266.3191370776145</v>
       </c>
       <c r="W8" t="n">
-        <v>185.864430919943</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>59.73917789238745</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.7806877295495</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274094</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>94.16481274941263</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>111.1836666084325</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1660,19 +1660,19 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>185.8336559953617</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,13 +2058,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>93.87916681139943</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>87.44132015039833</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.1406355307175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>109.1121207897299</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.18768101996842</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>51.46375476496024</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,10 +3009,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3082,13 +3082,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>22.25888195252609</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.731669438490537</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560551</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>75.01241171498</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>28.3372457787094</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3720,10 +3720,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>179.0556349746078</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>76.31784138894744</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.77945773665003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.29718497126802</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.321187657107</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>209.0209450511135</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>209.0209450511135</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>202.0754443019101</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2168.926277893999</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1795.460519632919</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1405.321187657107</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,19 +4439,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3478788207</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9963436509397</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9963436509397</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9963436509397</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.069036214947</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1523.789104616764</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1138.000852018519</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>727.0149472289118</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>309.0511391270986</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2494.871095598452</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2163.808208254881</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2163.808208254881</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2163.808208254881</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>1773.668876279069</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>549.6273375774088</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>549.6273375774088</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>549.6273375774088</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>549.6273375774088</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>549.6273375774088</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>549.6273375774088</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>549.6273375774088</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="W8" t="n">
-        <v>2509.407241604139</v>
+        <v>2373.111172177389</v>
       </c>
       <c r="X8" t="n">
-        <v>2135.941483343059</v>
+        <v>1999.645413916309</v>
       </c>
       <c r="Y8" t="n">
-        <v>2135.941483343059</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>638.3694611283516</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>638.3694611283516</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>638.3694611283516</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>638.3694611283516</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>638.3694611283516</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.5768819848216</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155891</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.505047571597</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M12" t="n">
-        <v>1794.873193964058</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N12" t="n">
-        <v>1794.873193964058</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
-        <v>2074.413259182755</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.33306393444</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C13" t="n">
-        <v>192.33306393444</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D13" t="n">
-        <v>192.33306393444</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E13" t="n">
-        <v>192.33306393444</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324574</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="X13" t="n">
-        <v>192.33306393444</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.33306393444</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5266,7 +5266,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5293,19 +5293,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>517.7409586960525</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.109105088514</v>
+        <v>647.5155168583368</v>
       </c>
       <c r="N15" t="n">
-        <v>2079.710673976462</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O15" t="n">
-        <v>2328.464088060424</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.6596981028219</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C16" t="n">
-        <v>563.7235151749151</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D16" t="n">
-        <v>563.7235151749151</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1311.205506926224</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1022.076868139783</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1022.076868139783</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>732.6596981028219</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>732.6596981028219</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>732.6596981028219</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,16 +5530,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>642.5710836830574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>1410.939230075519</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N18" t="n">
-        <v>1476.356849144414</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O18" t="n">
-        <v>2145.820610447073</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5749,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>388.8958536704857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>1002.792923427374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>1771.161069819836</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N21" t="n">
-        <v>2115.681725457454</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O21" t="n">
-        <v>2145.820610447073</v>
+        <v>1891.427750556798</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2411.728372292545</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.8862794544777</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>986.8862794544777</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>986.8862794544777</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>986.8862794544777</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>766.0937003109476</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.010242114294</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1891.427750556798</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2411.728372292545</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150552</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>784.9755865264517</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,49 +6229,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>877.435363369537</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>1645.803509761999</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N27" t="n">
-        <v>1645.803509761999</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O27" t="n">
-        <v>2145.820610447073</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>820.5263570570741</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>334.3919945291553</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>184.2753551168196</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>184.2753551168196</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>184.2753551168196</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>184.2753551168196</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>184.2753551168196</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262961</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570741</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>820.5263570570741</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X28" t="n">
-        <v>820.5263570570741</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y28" t="n">
-        <v>820.5263570570741</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6478,22 +6478,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L30" t="n">
-        <v>1002.792923427374</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M30" t="n">
-        <v>1002.792923427374</v>
+        <v>865.5852378527475</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.347833878255</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1918.75023020086</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>465.2890973945354</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>465.2890973945354</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>465.2890973945354</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>317.3760038121422</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>874.9271131227924</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>874.9271131227924</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>874.9271131227924</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>646.9375622247751</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>646.9375622247751</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6691,28 +6691,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,28 +6724,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>222.5746515181233</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>452.5377573864724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>754.9984739765637</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N33" t="n">
-        <v>1559.410052240715</v>
+        <v>1221.963989254138</v>
       </c>
       <c r="O33" t="n">
         <v>1808.163466324677</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>379.1484955646972</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C34" t="n">
-        <v>379.1484955646972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>379.1484955646972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>231.2354019823041</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>231.2354019823041</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>231.2354019823041</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557893</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557893</v>
+        <v>1497.167109508922</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473445</v>
+        <v>1297.247099424474</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473445</v>
+        <v>1297.247099424474</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473445</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="V34" t="n">
-        <v>1298.996260473445</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="W34" t="n">
-        <v>1009.579090436484</v>
+        <v>1008.118460638033</v>
       </c>
       <c r="X34" t="n">
-        <v>781.5895395384671</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y34" t="n">
-        <v>560.7969603949369</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6943,7 +6943,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,34 +6952,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250805</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001782</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M36" t="n">
-        <v>3341.227562311855</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="N36" t="n">
-        <v>3671.090189975888</v>
+        <v>1479.482307609636</v>
       </c>
       <c r="O36" t="n">
-        <v>4340.553951278547</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>4860.854573014294</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.2699138005286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>635.9655670641829</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>488.0524734817898</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>341.1625259838794</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>172.9872043037</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>172.9872043037</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655742</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286137</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X37" t="n">
-        <v>637.0624929440587</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y37" t="n">
-        <v>416.2699138005286</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,37 +7174,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L39" t="n">
-        <v>1002.792923427374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>1323.128242957076</v>
+        <v>865.5852378527474</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.990870621109</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2339.460577419557</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3628.091576844588</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916682</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916682</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916682</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916682</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916682</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916682</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916682</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4036.945405494735</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>3856.081127742606</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>3856.081127742606</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3628.091576844588</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3628.091576844588</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805473</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>188.143296878675</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>802.0403666355637</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="M42" t="n">
-        <v>1570.408513028025</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="N42" t="n">
-        <v>2374.820091292176</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>385.5899330013841</v>
+        <v>708.9934778008142</v>
       </c>
       <c r="X43" t="n">
-        <v>157.6003821033667</v>
+        <v>708.9934778008142</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>708.9934778008142</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>1595.645765494011</v>
+        <v>334.288126757867</v>
       </c>
       <c r="N45" t="n">
-        <v>2105.043711221602</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O45" t="n">
-        <v>2353.797125305564</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>531.3977182706318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>49.52358393480773</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,19 +9017,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>468.4231729534498</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>197.4201151832272</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>173.0395626157771</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>111.1934253088072</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9956,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>222.7040762286641</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>447.6499092655448</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10667,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>326.7328261544156</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>229.6860909121257</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>381.5997261417972</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11396,10 +11396,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>51.25623527351861</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>140.9539767153955</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>35.7139050630276</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>198.796032248179</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890328</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.56901985831968</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>58.13470030889798</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>24.23156444430356</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>93.957293257971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>126.65494641501</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>108.2326829653022</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>35.40683374929198</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>197.3724096103277</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>73.08200834922025</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.2051569476436</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>158.8051956154447</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.2874683808268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801609.5724623037</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801609.5724623032</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623033</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="F2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="G2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="H2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="I2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="J2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="K2" t="n">
+        <v>566992.1366196775</v>
+      </c>
+      <c r="L2" t="n">
         <v>566992.1366196781</v>
-      </c>
-      <c r="F2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="G2" t="n">
-        <v>566992.1366196779</v>
-      </c>
-      <c r="H2" t="n">
-        <v>566992.136619678</v>
-      </c>
-      <c r="I2" t="n">
-        <v>566992.1366196781</v>
-      </c>
-      <c r="J2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="K2" t="n">
-        <v>566992.1366196777</v>
-      </c>
-      <c r="L2" t="n">
-        <v>566992.136619678</v>
       </c>
       <c r="M2" t="n">
         <v>566992.1366196775</v>
       </c>
       <c r="N2" t="n">
+        <v>566992.1366196777</v>
+      </c>
+      <c r="O2" t="n">
         <v>566992.1366196774</v>
       </c>
-      <c r="O2" t="n">
-        <v>566992.1366196781</v>
-      </c>
       <c r="P2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196777</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.986472225410878e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905757903</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.793690575847</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758063</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758011</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905757147</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905757468</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905757693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,13 +26484,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26502,7 +26502,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.813306968</v>
+        <v>-216630.8133069682</v>
       </c>
       <c r="C6" t="n">
+        <v>373337.0659075766</v>
+      </c>
+      <c r="D6" t="n">
         <v>373337.0659075764</v>
       </c>
-      <c r="D6" t="n">
-        <v>373337.0659075765</v>
-      </c>
       <c r="E6" t="n">
-        <v>-50943.01949651044</v>
+        <v>-51917.61075623205</v>
       </c>
       <c r="F6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206637</v>
       </c>
       <c r="G6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206635</v>
       </c>
       <c r="H6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206637</v>
       </c>
       <c r="I6" t="n">
-        <v>474217.0169803857</v>
+        <v>473242.4257206635</v>
       </c>
       <c r="J6" t="n">
-        <v>297793.7977877923</v>
+        <v>296819.2065280708</v>
       </c>
       <c r="K6" t="n">
-        <v>474217.0169803852</v>
+        <v>473242.4257206634</v>
       </c>
       <c r="L6" t="n">
-        <v>474217.0169803856</v>
+        <v>473242.425720664</v>
       </c>
       <c r="M6" t="n">
-        <v>339416.0017465479</v>
+        <v>338441.4104868263</v>
       </c>
       <c r="N6" t="n">
-        <v>474217.0169803851</v>
+        <v>473242.4257206635</v>
       </c>
       <c r="O6" t="n">
-        <v>474217.0169803856</v>
+        <v>473242.4257206633</v>
       </c>
       <c r="P6" t="n">
-        <v>474217.0169803855</v>
+        <v>473242.4257206635</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.233090281763598e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26804,13 +26804,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26822,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.233090281763598e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.233090281763598e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>267.1330321640648</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>306.4186666165044</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>176.0696261217237</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>12.03533246204674</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>71.36569703069034</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>105.447354617528</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>43.13981385480322</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>48.31847529534886</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>61.43312139252038</v>
       </c>
       <c r="W8" t="n">
-        <v>163.37653779747</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2959275656968</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594877</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.190252600806797e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29024,7 +29024,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>4.336205468765305e-12</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -29988,25 +29988,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30039,22 +30039,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-1.542710786703412e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30404,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-7.280249449099882e-12</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071298</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,22 +31840,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>352.8324835862117</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>341.0678223458549</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,34 +32074,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>446.2353028704819</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>225.9628574215824</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>143.8894692628929</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,34 +32785,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>143.8894692628929</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,34 +33022,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>32.39888063626327</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,34 +33259,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>97.00429779117457</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>229.3640204507202</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,7 +33496,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33511,16 +33511,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>340.85460907735</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>80.73509558694843</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,40 +33888,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927169</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,34 +33970,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>288.5988541477454</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>32.39888063626327</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,34 +34207,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>225.9373985850582</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,37 +34447,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>166.5427172625987</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>700.8331458464319</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>256.6169988663324</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>801.6177463514628</v>
+        <v>794.2359651307021</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>66.0784030998939</v>
+        <v>573.9635196818026</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>30.44331817133266</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>213.9849829127205</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>444.3879987068202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>213.9849829127205</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>505.0677784697723</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>216.8872418618702</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>445.0049600513948</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>413.8523816763271</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>305.5158753435265</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>592.1206839096351</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997186478</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>184.5987922323973</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>332.0011704192335</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>146.002609703301</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>216.8872418618702</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016555827</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>91.84465193776676</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>458.2233641086432</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>239.4656922197789</v>
       </c>
       <c r="N45" t="n">
-        <v>514.5433795228189</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2652221.087986525</v>
+        <v>2657160.350835558</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>510290.2443649753</v>
+        <v>524882.6615157977</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -791,7 +791,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>126.4837616268615</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>213.6743229269904</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>252.5570757336668</v>
+        <v>307.0354783084786</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>124.1699884042477</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>78.9700292157106</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>266.3191370776145</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>362.2527184985278</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7806877295495</v>
+        <v>128.7835007017905</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>111.1836666084325</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>57.64843562452406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>44.43247750432297</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>9.414598374696947</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>86.18768101996842</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>42.81113462701864</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.731669438490537</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>75.01241171498</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>169.4110513929681</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>86.6552877172055</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>76.31784138894744</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4424,10 +4424,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>600.3676088257661</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>373.0594214943678</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1882.054803223514</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C5" t="n">
-        <v>1882.054803223514</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="D5" t="n">
-        <v>1523.789104616764</v>
+        <v>1578.81779408627</v>
       </c>
       <c r="E5" t="n">
-        <v>1138.000852018519</v>
+        <v>1193.029541488026</v>
       </c>
       <c r="F5" t="n">
-        <v>727.0149472289118</v>
+        <v>782.0436366984186</v>
       </c>
       <c r="G5" t="n">
-        <v>309.0511391270986</v>
+        <v>364.0798285966055</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005474</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="C7" t="n">
-        <v>473.4444960005474</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="D7" t="n">
-        <v>473.4444960005474</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="E7" t="n">
-        <v>473.4444960005474</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="F7" t="n">
-        <v>473.4444960005474</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>648.3612779279387</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>648.3612779279387</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>648.3612779279387</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>648.3612779279387</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>393.6767897220518</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
         <v>1222.906241876376</v>
@@ -4795,28 +4795,28 @@
         <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.84331964269</v>
@@ -4825,31 +4825,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2373.111172177389</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.111172177389</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>1999.645413916309</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598707</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.7169011658211</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>184.0273259635872</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5032,40 +5032,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,7 +5077,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M12" t="n">
-        <v>865.5852378527472</v>
+        <v>865.5852378527477</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1669.996816116899</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2339.460577419558</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>562.7003690904323</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>562.7003690904323</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,10 +5263,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5293,37 +5293,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L15" t="n">
         <v>327.180197328635</v>
       </c>
       <c r="M15" t="n">
-        <v>647.5155168583368</v>
+        <v>967.054688195977</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.809122337732</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O15" t="n">
-        <v>2103.272883640391</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.3840174432676</v>
+        <v>610.8083514132647</v>
       </c>
       <c r="C16" t="n">
-        <v>155.4478345153607</v>
+        <v>610.8083514132647</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>460.691712000929</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>792.4568162435045</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>792.4568162435045</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527474</v>
+        <v>865.5852378527475</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.809122337732</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2339.460577419558</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899876</v>
+        <v>334.2881267578666</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.963989254138</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O21" t="n">
-        <v>1891.427750556798</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2411.728372292545</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899876</v>
+        <v>334.2881267578666</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.963989254138</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O24" t="n">
-        <v>1891.427750556798</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2411.728372292545</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="M27" t="n">
-        <v>865.5852378527474</v>
+        <v>417.5524109899877</v>
       </c>
       <c r="N27" t="n">
-        <v>1669.996816116898</v>
+        <v>1221.963989254139</v>
       </c>
       <c r="O27" t="n">
-        <v>2339.460577419557</v>
+        <v>1891.427750556798</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>503.3281774570622</v>
+        <v>665.685973528618</v>
       </c>
       <c r="C28" t="n">
-        <v>334.3919945291553</v>
+        <v>665.685973528618</v>
       </c>
       <c r="D28" t="n">
-        <v>184.2753551168196</v>
+        <v>515.5693341162822</v>
       </c>
       <c r="E28" t="n">
-        <v>184.2753551168196</v>
+        <v>515.5693341162822</v>
       </c>
       <c r="F28" t="n">
-        <v>184.2753551168196</v>
+        <v>368.6793866183718</v>
       </c>
       <c r="G28" t="n">
-        <v>184.2753551168196</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>184.2753551168196</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771465</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>955.1031435655785</v>
       </c>
       <c r="W28" t="n">
-        <v>731.3177283550796</v>
+        <v>665.685973528618</v>
       </c>
       <c r="X28" t="n">
-        <v>503.3281774570622</v>
+        <v>665.685973528618</v>
       </c>
       <c r="Y28" t="n">
-        <v>503.3281774570622</v>
+        <v>665.685973528618</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,16 +6454,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514085</v>
@@ -6478,10 +6478,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6551,13 +6551,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="M30" t="n">
-        <v>865.5852378527475</v>
+        <v>671.945270880263</v>
       </c>
       <c r="N30" t="n">
-        <v>1669.996816116898</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O30" t="n">
-        <v>1918.75023020086</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028587</v>
@@ -6621,7 +6621,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6703,46 +6703,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6788,10 +6788,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M33" t="n">
-        <v>417.5524109899876</v>
+        <v>334.2881267578666</v>
       </c>
       <c r="N33" t="n">
-        <v>1221.963989254138</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O33" t="n">
         <v>1808.163466324677</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1497.167109508922</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1297.247099424474</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1297.247099424474</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1008.118460638033</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1008.118460638033</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1008.118460638033</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>780.1289097400152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6943,7 +6943,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,13 +6952,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,16 +7019,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>425.8982501753266</v>
       </c>
       <c r="L36" t="n">
-        <v>711.1141612171745</v>
+        <v>1039.795319932215</v>
       </c>
       <c r="M36" t="n">
-        <v>1479.482307609636</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="N36" t="n">
-        <v>1479.482307609636</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O36" t="n">
         <v>1808.163466324677</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>635.9655670641829</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>488.0524734817898</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>341.1625259838794</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>172.9872043037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>172.9872043037</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>786.0822064765186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7262,16 +7262,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M39" t="n">
-        <v>865.5852378527474</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N39" t="n">
-        <v>1669.996816116898</v>
+        <v>1221.963989254139</v>
       </c>
       <c r="O39" t="n">
-        <v>2339.460577419557</v>
+        <v>1891.427750556798</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7426,22 +7426,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>1128.069692924718</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.069692924718</v>
+        <v>334.2881267578666</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>527.3450129705744</v>
+        <v>503.0396462065439</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705744</v>
+        <v>503.0396462065439</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705744</v>
+        <v>352.9230067942082</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>352.9230067942082</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>352.9230067942082</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>184.7476851140288</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W43" t="n">
-        <v>708.9934778008142</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X43" t="n">
-        <v>708.9934778008142</v>
+        <v>503.0396462065439</v>
       </c>
       <c r="Y43" t="n">
-        <v>708.9934778008142</v>
+        <v>503.0396462065439</v>
       </c>
     </row>
     <row r="44">
@@ -7663,13 +7663,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7736,10 +7736,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
-        <v>334.288126757867</v>
+        <v>334.2881267578666</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1138.699705022017</v>
       </c>
       <c r="O45" t="n">
         <v>1808.163466324677</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,19 +7824,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -9488,7 +9488,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417969</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417969</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>381.5997261417969</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10679,7 +10679,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>381.5997261417969</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417972</v>
+        <v>381.5997261417969</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675315</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>140.9539767153955</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>90.96703739368829</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>102.0014851422462</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,7 +23706,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>157.0789700886806</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>24.23156444430356</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>209.3265086968094</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>108.2326829653022</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>35.40683374929198</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338565</v>
+        <v>117.1119469436229</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>62.25854065033063</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>210.2051569476436</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801609.5724623034</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801609.5724623036</v>
+        <v>801609.5724623034</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801609.5724623033</v>
+        <v>801609.5724623036</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516052</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516047</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516048</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516051</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516051</v>
-      </c>
       <c r="E2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.136619678</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.136619678</v>
       </c>
       <c r="H2" t="n">
-        <v>566992.1366196779</v>
+        <v>566992.1366196775</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.136619678</v>
       </c>
       <c r="J2" t="n">
         <v>566992.136619678</v>
       </c>
       <c r="K2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="L2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196775</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="N2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="O2" t="n">
         <v>566992.1366196777</v>
       </c>
-      <c r="O2" t="n">
-        <v>566992.1366196774</v>
-      </c>
       <c r="P2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196778</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
@@ -26426,40 +26426,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-216630.8133069682</v>
+        <v>-216630.8133069678</v>
       </c>
       <c r="C6" t="n">
-        <v>373337.0659075766</v>
+        <v>373337.0659075762</v>
       </c>
       <c r="D6" t="n">
-        <v>373337.0659075764</v>
+        <v>373337.0659075761</v>
       </c>
       <c r="E6" t="n">
-        <v>-51917.61075623205</v>
+        <v>-51040.47862248308</v>
       </c>
       <c r="F6" t="n">
-        <v>473242.4257206637</v>
+        <v>474119.5578544132</v>
       </c>
       <c r="G6" t="n">
-        <v>473242.4257206635</v>
+        <v>474119.5578544133</v>
       </c>
       <c r="H6" t="n">
-        <v>473242.4257206637</v>
+        <v>474119.5578544128</v>
       </c>
       <c r="I6" t="n">
-        <v>473242.4257206635</v>
+        <v>474119.5578544133</v>
       </c>
       <c r="J6" t="n">
-        <v>296819.2065280708</v>
+        <v>297696.3386618203</v>
       </c>
       <c r="K6" t="n">
-        <v>473242.4257206634</v>
+        <v>474119.5578544131</v>
       </c>
       <c r="L6" t="n">
-        <v>473242.425720664</v>
+        <v>474119.5578544131</v>
       </c>
       <c r="M6" t="n">
-        <v>338441.4104868263</v>
+        <v>339318.5426205758</v>
       </c>
       <c r="N6" t="n">
-        <v>473242.4257206635</v>
+        <v>474119.5578544132</v>
       </c>
       <c r="O6" t="n">
-        <v>473242.4257206633</v>
+        <v>474119.557854413</v>
       </c>
       <c r="P6" t="n">
-        <v>473242.4257206635</v>
+        <v>474119.5578544131</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>85.66177732315745</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>12.03533246204674</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>71.36569703069034</v>
+        <v>16.88729445587859</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>43.13981385480322</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>67.69516276444726</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>61.43312139252038</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>23.98522015752582</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594877</v>
+        <v>96.92615468724668</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-9.924785563765922e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28265,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.619001477597825e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-6.190252600806797e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29477,7 +29477,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>4.336205468765305e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31144,25 +31144,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>87.78329382423951</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31606,10 +31606,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>87.78329382423922</v>
       </c>
       <c r="L9" t="n">
-        <v>132.9984977071298</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983123</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -31849,31 +31849,31 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>352.8324835862117</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>32.39888063626282</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,7 +32074,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32086,16 +32086,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>322.76683973499</v>
       </c>
       <c r="N15" t="n">
-        <v>446.2353028704819</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,7 +32311,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32323,16 +32323,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>225.9628574215824</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>102.4943942860903</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,40 +32466,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961197</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32563,16 +32563,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>143.8894692628929</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32800,16 +32800,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>143.8894692628929</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -33034,19 +33034,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>32.39888063626327</v>
+        <v>256.962484737652</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33271,19 +33271,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>256.9624847376519</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>229.3640204507202</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927169</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,7 +33496,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -33511,16 +33511,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>340.85460907735</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>205.3773723810135</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>80.73509558694843</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,40 +33888,40 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946974</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,7 +33970,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -33982,19 +33982,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>32.39888063626327</v>
+        <v>256.962484737652</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,34 +34207,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>225.9373985850582</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34444,7 +34444,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -34459,19 +34459,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624588</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262939</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>700.8331458464319</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>216.8872418618697</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>646.3378695629716</v>
       </c>
       <c r="N15" t="n">
-        <v>794.2359651307021</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>573.9635196818026</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>286.9827555116972</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197785</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.9849829127205</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197785</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.9849829127205</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>216.8872418618702</v>
+        <v>441.4508459632589</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187911</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>580.5335145656335</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>413.8523816763271</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>239.4656922197786</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>592.1206839096351</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>332.0011704192331</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
@@ -37399,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>332.0011704192335</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>216.8872418618702</v>
+        <v>441.4508459632589</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>458.2233641086432</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>239.4656922197786</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197789</v>
+        <v>239.4656922197786</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
